--- a/5_analisis_de_resultados/output/df_results_ordered_by_iter.xlsx
+++ b/5_analisis_de_resultados/output/df_results_ordered_by_iter.xlsx
@@ -588,7 +588,7 @@
         <v>0.9997646089566292</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9995880656741011</v>
+        <v>0.9984111104572471</v>
       </c>
       <c r="I2" t="n">
         <v>0.9998234567174719</v>
@@ -1230,7 +1230,7 @@
         <v>0.9996544276457884</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999135396852844</v>
+        <v>0.9999133899185865</v>
       </c>
       <c r="I2" t="n">
         <v>0.99982716902869</v>
@@ -2193,7 +2193,7 @@
         <v>0.9591836734693877</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9431818181818182</v>
       </c>
       <c r="I2" t="n">
         <v>0.9595959595959596</v>
@@ -2381,7 +2381,7 @@
         <v>0.9292929292929293</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I6" t="n">
         <v>0.8942307692307693</v>
@@ -2514,7 +2514,7 @@
         <v>0.999493670886076</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.994466800804829</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -2702,7 +2702,7 @@
         <v>0.9979767324228629</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9984833164812943</v>
+        <v>0.9974772956609486</v>
       </c>
       <c r="I6" t="n">
         <v>0.9994929006085193</v>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -3798,7 +3798,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9885629040278469</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -4761,7 +4761,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9994814622763806</v>
+        <v>0.9977530031976493</v>
       </c>
       <c r="I2" t="n">
         <v>0.9999135770460634</v>
@@ -5724,7 +5724,7 @@
         <v>0.9894736842105263</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9789473684210527</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -5912,7 +5912,7 @@
         <v>0.968421052631579</v>
       </c>
       <c r="H6" t="n">
-        <v>0.968421052631579</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I6" t="n">
         <v>0.9789473684210527</v>
@@ -6045,7 +6045,7 @@
         <v>0.9964664310954063</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9974760222110045</v>
+        <v>0.9979808177688037</v>
       </c>
       <c r="I2" t="n">
         <v>0.9974760222110045</v>
@@ -6233,7 +6233,7 @@
         <v>0.9959616355376073</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9969712266532055</v>
+        <v>0.9979808177688037</v>
       </c>
       <c r="I6" t="n">
         <v>0.9949520444220091</v>
@@ -6687,7 +6687,7 @@
         <v>0.98</v>
       </c>
       <c r="H2" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -7329,7 +7329,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9994972347913524</v>
       </c>
       <c r="I2" t="n">
         <v>0.9994972347913524</v>
@@ -8292,7 +8292,7 @@
         <v>0.9998271839626718</v>
       </c>
       <c r="H2" t="n">
-        <v>0.999697454293988</v>
+        <v>0.9988320283773845</v>
       </c>
       <c r="I2" t="n">
         <v>0.9998703711705483</v>
@@ -9255,7 +9255,7 @@
         <v>0.9740932642487047</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9587628865979383</v>
+        <v>0.907103825136612</v>
       </c>
       <c r="I2" t="n">
         <v>0.979381443298969</v>
@@ -9443,7 +9443,7 @@
         <v>0.9484536082474226</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9484536082474226</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="I6" t="n">
         <v>0.9346733668341709</v>
@@ -9576,7 +9576,7 @@
         <v>0.9979777553083923</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9987364164771292</v>
+        <v>0.9962207105064248</v>
       </c>
       <c r="I2" t="n">
         <v>0.9987364164771292</v>
@@ -9764,7 +9764,7 @@
         <v>0.9969681657402729</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9977266986612783</v>
+        <v>0.9977289931869796</v>
       </c>
       <c r="I6" t="n">
         <v>0.9972173033139388</v>
@@ -9897,7 +9897,7 @@
         <v>0.9767441860465117</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -10218,7 +10218,7 @@
         <v>0.9898989898989899</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9898989898989899</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -10860,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="I2" t="n">
         <v>0.9997485541865728</v>
@@ -11181,7 +11181,7 @@
         <v>0.9997057611957865</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9995292179132584</v>
+        <v>0.9989995880656741</v>
       </c>
       <c r="I2" t="n">
         <v>0.9997646089566292</v>
@@ -11811,34 +11811,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -11858,34 +11858,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -11905,34 +11905,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -11952,34 +11952,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -11999,34 +11999,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -12132,34 +12132,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -12179,34 +12179,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -12226,34 +12226,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -12273,34 +12273,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -12320,34 +12320,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -12453,34 +12453,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -12500,34 +12500,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -12547,34 +12547,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -12594,34 +12594,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -12641,34 +12641,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -12774,34 +12774,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -12821,34 +12821,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -12868,34 +12868,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -12915,34 +12915,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -12962,34 +12962,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -13095,34 +13095,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -13142,34 +13142,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -13189,34 +13189,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -13236,34 +13236,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -13283,34 +13283,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -13416,34 +13416,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -13463,34 +13463,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -13510,34 +13510,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -13557,34 +13557,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -13604,34 +13604,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -13737,34 +13737,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -13784,34 +13784,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -13831,34 +13831,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -13878,34 +13878,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -13925,34 +13925,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -14058,34 +14058,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -14105,34 +14105,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -14152,34 +14152,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -14199,34 +14199,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -14246,34 +14246,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -14379,34 +14379,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -14426,34 +14426,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -14473,34 +14473,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -14520,34 +14520,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -14567,34 +14567,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -14712,7 +14712,7 @@
         <v>0.9995292179132584</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9997057611957865</v>
+        <v>0.9991172835873595</v>
       </c>
       <c r="I2" t="n">
         <v>0.9997057611957865</v>
@@ -15021,34 +15021,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>72645.400010515</v>
+        <v>71872.60000500828</v>
       </c>
       <c r="E2" t="n">
-        <v>73562.80001113191</v>
+        <v>73937.80001439154</v>
       </c>
       <c r="F2" t="n">
-        <v>75379.79999324307</v>
+        <v>75490.30007794499</v>
       </c>
       <c r="G2" t="n">
-        <v>69379.19999472797</v>
+        <v>74318.90000589192</v>
       </c>
       <c r="H2" t="n">
-        <v>71934.00000687689</v>
+        <v>79454.99999914318</v>
       </c>
       <c r="I2" t="n">
-        <v>75372.19999358058</v>
+        <v>70056.30002822727</v>
       </c>
       <c r="J2" t="n">
-        <v>73401.50000527501</v>
+        <v>69818.1000771001</v>
       </c>
       <c r="K2" t="n">
-        <v>72120.29997026548</v>
+        <v>76509.80004109442</v>
       </c>
       <c r="L2" t="n">
-        <v>70774.20002315193</v>
+        <v>71166.99998732656</v>
       </c>
       <c r="M2" t="n">
-        <v>76403.90004962683</v>
+        <v>79681.699979119</v>
       </c>
     </row>
     <row r="3">
@@ -15068,34 +15068,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1537.600008305162</v>
+        <v>1506.099943071604</v>
       </c>
       <c r="E3" t="n">
-        <v>1346.100005321205</v>
+        <v>1454.600016586483</v>
       </c>
       <c r="F3" t="n">
-        <v>1441.299973521382</v>
+        <v>1394.500024616718</v>
       </c>
       <c r="G3" t="n">
-        <v>1457.399979699403</v>
+        <v>1842.799945734441</v>
       </c>
       <c r="H3" t="n">
-        <v>1550.299988593906</v>
+        <v>1433.299970813096</v>
       </c>
       <c r="I3" t="n">
-        <v>1481.899991631508</v>
+        <v>1408.400014042854</v>
       </c>
       <c r="J3" t="n">
-        <v>1376.800006255507</v>
+        <v>2012.500073760748</v>
       </c>
       <c r="K3" t="n">
-        <v>1396.099978592247</v>
+        <v>1437.400002032518</v>
       </c>
       <c r="L3" t="n">
-        <v>2137.799980118871</v>
+        <v>1527.999993413687</v>
       </c>
       <c r="M3" t="n">
-        <v>1798.70001738891</v>
+        <v>1381.300040520728</v>
       </c>
     </row>
     <row r="4">
@@ -15115,34 +15115,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5446.300026960671</v>
+        <v>4619.200015440583</v>
       </c>
       <c r="E4" t="n">
-        <v>5249.099980574101</v>
+        <v>5962.600000202656</v>
       </c>
       <c r="F4" t="n">
-        <v>4366.100009065121</v>
+        <v>5830.400041304529</v>
       </c>
       <c r="G4" t="n">
-        <v>6010.90001873672</v>
+        <v>5845.299921929836</v>
       </c>
       <c r="H4" t="n">
-        <v>4574.700025841594</v>
+        <v>5956.399952992797</v>
       </c>
       <c r="I4" t="n">
-        <v>4982.099984772503</v>
+        <v>5233.300034888089</v>
       </c>
       <c r="J4" t="n">
-        <v>4203.899996355176</v>
+        <v>5291.700013913214</v>
       </c>
       <c r="K4" t="n">
-        <v>4500.499984715134</v>
+        <v>5960.299982689321</v>
       </c>
       <c r="L4" t="n">
-        <v>4409.499990288168</v>
+        <v>4412.699956446886</v>
       </c>
       <c r="M4" t="n">
-        <v>4213.500011246651</v>
+        <v>4258.2000605762</v>
       </c>
     </row>
     <row r="5">
@@ -15162,34 +15162,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>361594.8000224307</v>
+        <v>361464.7999638692</v>
       </c>
       <c r="E5" t="n">
-        <v>348678.3999833278</v>
+        <v>404234.8000220954</v>
       </c>
       <c r="F5" t="n">
-        <v>362231.5999818966</v>
+        <v>420291.3000481203</v>
       </c>
       <c r="G5" t="n">
-        <v>320137.6999495551</v>
+        <v>443160.3000266477</v>
       </c>
       <c r="H5" t="n">
-        <v>316378.5000215285</v>
+        <v>408329.4000010937</v>
       </c>
       <c r="I5" t="n">
-        <v>325274.2000040598</v>
+        <v>346835.2999771014</v>
       </c>
       <c r="J5" t="n">
-        <v>314403.600001242</v>
+        <v>382762.0999654755</v>
       </c>
       <c r="K5" t="n">
-        <v>339056.1999985948</v>
+        <v>409366.4000974968</v>
       </c>
       <c r="L5" t="n">
-        <v>366162.3999942094</v>
+        <v>384022.2000144422</v>
       </c>
       <c r="M5" t="n">
-        <v>344909.8999844864</v>
+        <v>350796.6999895871</v>
       </c>
     </row>
     <row r="6">
@@ -15209,34 +15209,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>441224.1000682116</v>
+        <v>440.0433000409976</v>
       </c>
       <c r="E6" t="n">
-        <v>428836.3999803551</v>
+        <v>486.1161999870092</v>
       </c>
       <c r="F6" t="n">
-        <v>443418.7999577262</v>
+        <v>503.4978999756277</v>
       </c>
       <c r="G6" t="n">
-        <v>396985.1999427192</v>
+        <v>525.6954000797123</v>
       </c>
       <c r="H6" t="n">
-        <v>394437.5000428408</v>
+        <v>495.6865001004189</v>
       </c>
       <c r="I6" t="n">
-        <v>407110.3999740444</v>
+        <v>423.9955999655649</v>
       </c>
       <c r="J6" t="n">
-        <v>393385.8000091277</v>
+        <v>460.5087999952957</v>
       </c>
       <c r="K6" t="n">
-        <v>417073.0999321677</v>
+        <v>493.8585000345483</v>
       </c>
       <c r="L6" t="n">
-        <v>443483.8999877684</v>
+        <v>461.6764000384137</v>
       </c>
       <c r="M6" t="n">
-        <v>427326.0000627488</v>
+        <v>436.6152000147849</v>
       </c>
     </row>
   </sheetData>
@@ -15354,7 +15354,7 @@
         <v>0.9999991725723046</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999998730369458</v>
+        <v>0.9999109481201</v>
       </c>
       <c r="I2" t="n">
         <v>0.9999996445907832</v>
@@ -15542,7 +15542,7 @@
         <v>0.9999972756955491</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999996787774507</v>
+        <v>0.9999995438467617</v>
       </c>
       <c r="I6" t="n">
         <v>0.9999962247947368</v>
@@ -16317,7 +16317,7 @@
         <v>0.9972973757915609</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9952840425377659</v>
+        <v>0.9667107063225016</v>
       </c>
       <c r="I2" t="n">
         <v>0.9987734899004806</v>
@@ -16505,7 +16505,7 @@
         <v>0.9936601244608887</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9931072507839582</v>
+        <v>0.9928309258917857</v>
       </c>
       <c r="I6" t="n">
         <v>0.9912597115654963</v>
@@ -16638,7 +16638,7 @@
         <v>0.9999752713410153</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999918835163935</v>
+        <v>0.9999293084154245</v>
       </c>
       <c r="I2" t="n">
         <v>0.9999950510133337</v>
@@ -16826,7 +16826,7 @@
         <v>0.9999787351863525</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9999900627438383</v>
+        <v>0.9999913445014639</v>
       </c>
       <c r="I6" t="n">
         <v>0.9999744990635767</v>
@@ -17922,7 +17922,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9970702878051325</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -18110,7 +18110,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -18243,7 +18243,7 @@
         <v>0.9999411522391572</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9999411522391572</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -18885,7 +18885,7 @@
         <v>0.9999411522391572</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9999411522391572</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -19527,7 +19527,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9985876537397752</v>
       </c>
       <c r="I2" t="n">
         <v>0.9999411522391572</v>
